--- a/docs/Advanced-collections-interface-analysis.xlsx
+++ b/docs/Advanced-collections-interface-analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\clojure\clojure-clr-next\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1608F1F6-23EF-493D-AB7E-C388E8929E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0105768E-74CF-4627-90FB-6836843967A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{56A88FB5-C3FE-45D2-B7AE-48526EDF119B}"/>
   </bookViews>
